--- a/assets/admin/template/template-tambah-data-siswa.xlsx
+++ b/assets/admin/template/template-tambah-data-siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Web Dev\data-center-smk3\assets\admin\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anonymous\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF989C-406C-44E3-849B-C5A592675AEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D26EFF-65B7-4BB1-A83D-C908E8B90118}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C64713A3-3D34-4C9E-89C2-B1AE1E068DBB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>NISN</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Tata Busana (TB)</t>
+  </si>
+  <si>
+    <t>0012340234</t>
+  </si>
+  <si>
+    <t>0012340235</t>
   </si>
 </sst>
 </file>
@@ -98,12 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61E0D32-EE8B-4C82-8646-55541DEDB6A6}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -451,8 +458,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2302340234</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -468,8 +475,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1231231221</v>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -483,6 +490,111 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
